--- a/HansenBeauProject2/Accessory Files/Orders.xlsx
+++ b/HansenBeauProject2/Accessory Files/Orders.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8EF6E4-0CA4-43F9-8FAB-5B88809D70E9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7353B197-9E39-4CD8-A79D-A287A8D05FDC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Product</t>
   </si>
@@ -82,21 +82,41 @@
     <t>Primary Phone</t>
   </si>
   <si>
-    <t>Beau</t>
-  </si>
-  <si>
-    <t>Hansen</t>
-  </si>
-  <si>
     <t>1111 First Street</t>
+  </si>
+  <si>
+    <t>Billing Address</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Jobs</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Shipping Address</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -124,9 +144,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,7 +435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -505,63 +531,130 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1">
+        <v>76013</v>
+      </c>
+      <c r="F2" s="1">
+        <v>208</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5554970</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="1">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1">
         <v>76013</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F5" s="1">
         <v>208</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G5" s="1">
         <v>5554970</v>
       </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A4:A5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HansenBeauProject2/Accessory Files/Orders.xlsx
+++ b/HansenBeauProject2/Accessory Files/Orders.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7353B197-9E39-4CD8-A79D-A287A8D05FDC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2A40F2-D3A0-4B61-9B54-D457E7A55BC0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,15 +144,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,7 +529,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,7 +545,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -576,7 +571,6 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
@@ -600,7 +594,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -626,7 +620,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
+      <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
@@ -650,10 +644,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A4:A5"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/HansenBeauProject2/Accessory Files/Orders.xlsx
+++ b/HansenBeauProject2/Accessory Files/Orders.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2A40F2-D3A0-4B61-9B54-D457E7A55BC0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07225E1-4C54-40C9-B216-6C8E9FB45885}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Product</t>
   </si>
@@ -529,7 +529,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,8 +540,7 @@
     <col min="4" max="4" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -610,12 +609,6 @@
         <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -633,13 +626,7 @@
       <c r="E5" s="1">
         <v>76013</v>
       </c>
-      <c r="F5" s="1">
-        <v>208</v>
-      </c>
-      <c r="G5" s="1">
-        <v>5554970</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="F5" t="s">
         <v>23</v>
       </c>
     </row>

--- a/HansenBeauProject2/Accessory Files/Orders.xlsx
+++ b/HansenBeauProject2/Accessory Files/Orders.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07225E1-4C54-40C9-B216-6C8E9FB45885}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649635D6-1E7F-45B5-9564-EE31E6600E39}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,7 +528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/HansenBeauProject2/Accessory Files/Orders.xlsx
+++ b/HansenBeauProject2/Accessory Files/Orders.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649635D6-1E7F-45B5-9564-EE31E6600E39}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC6BCDC-EDC3-47AC-BD30-97A663B17F84}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Product</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>Shipping Address</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>Total Price</t>
   </si>
 </sst>
 </file>
@@ -428,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,7 +445,7 @@
     <col min="1" max="1" width="25" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,8 +458,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -462,7 +474,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -470,7 +482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -478,7 +490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -486,7 +498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -494,7 +506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -502,7 +514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -510,7 +522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>

--- a/HansenBeauProject2/Accessory Files/Orders.xlsx
+++ b/HansenBeauProject2/Accessory Files/Orders.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC6BCDC-EDC3-47AC-BD30-97A663B17F84}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1D4331-9BEE-4011-8AD7-CEB579A4CCFC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Product</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Primary Phone</t>
   </si>
   <si>
-    <t>1111 First Street</t>
-  </si>
-  <si>
     <t>Billing Address</t>
   </si>
   <si>
@@ -107,6 +104,21 @@
   </si>
   <si>
     <t>Total Price</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Gates</t>
+  </si>
+  <si>
+    <t>Microsoft Street</t>
+  </si>
+  <si>
+    <t>MicroSoft</t>
+  </si>
+  <si>
+    <t>Apple Avenue</t>
   </si>
 </sst>
 </file>
@@ -436,7 +448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -459,10 +471,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -540,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,7 +561,7 @@
     <col min="1" max="1" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="14.109375" bestFit="1" customWidth="1"/>
@@ -557,7 +569,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>12</v>
@@ -578,35 +590,35 @@
         <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1">
         <v>76013</v>
       </c>
       <c r="F2" s="1">
-        <v>208</v>
+        <v>789</v>
       </c>
       <c r="G2" s="1">
-        <v>5554970</v>
+        <v>55511234</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -621,25 +633,25 @@
         <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1">
         <v>76013</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
